--- a/details.xlsx
+++ b/details.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">dob</t>
+    <t xml:space="preserve">date of Birth</t>
   </si>
   <si>
     <t xml:space="preserve">image</t>
@@ -71,13 +71,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -97,12 +96,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -149,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,11 +155,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,10 +179,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.87"/>
   </cols>
@@ -257,7 +246,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>36851</v>
+        <v>36852</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>9</v>
@@ -273,10 +262,10 @@
       <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>44886</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
